--- a/biology/Médecine/Bimékizumab/Bimékizumab.xlsx
+++ b/biology/Médecine/Bimékizumab/Bimékizumab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bim%C3%A9kizumab</t>
+          <t>Bimékizumab</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Bimékizumab est un anticorps monoclonal humanisé igG1 anti-IL17A et IL-17F qui fait l'objet d'études pour le traitement de la spondylarthrite ankylosante, du rhumatisme psoriasique et du psoriasis.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bim%C3%A9kizumab</t>
+          <t>Bimékizumab</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Bimékizumab est anticorps monoclonal un inhibiteur des cytokines IL17A et IL17F[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bimékizumab est anticorps monoclonal un inhibiteur des cytokines IL17A et IL17F,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bim%C3%A9kizumab</t>
+          <t>Bimékizumab</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,17 +557,19 @@
           <t>Essais cliniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Trois études de phase III ont donné des résultats positifs dans le traitement du psoriasis par Bimékizumab, évalué selon le score PASIPASI.
-- L'étude BE READY a montré que 91% des patients avaient atteint le score PASI90 après 16 semaines de traitement au Bimékizumab contre 1% dans le groupe placébo[3].
-- L'étude de phase III BE VIVID a évalué Bimékizumab contre ustékinumab (commercialisé sous le nom de Stellara). Après 16 semaines, 85% des patients traités avec Bimékizumab ont atteint PASI90 contre 50% dans les groupes ustékinumab[3].
-- Enfin, Bimékizumab s'est révélé plus efficace que le Cosentyx dans l'étude de phase III BE RADIANT : après 16 semaines de traitement, 61,7% des patients traités par Bimékizumab ont atteint PASI100 contre 48,9% pour ceux sous Secukinumab[4]. Le 28 mars 2022, sont publiées des données de long terme montrant que 80% des patients ayant atteint un score PASI100 à la semaine 16 le maintiennent après deux ans de traitement et que 100% de ceux ayant un PASI100 en semaine 48 le conservent en semaine 96 [5].
-Les patients ayant suivi jusqu'au bout l'une des trois études mentionnées étaient éligibles à participer à l'étude de phase III BE BRIGHT[6], qui montre dans ses résultats intermédiaires que 90% des patients ayant obtenu une peau claire ou presque claire après six semaines de traitement la conservent après deux ans en gardant le même dosage. 80% patients ayant atteint un PASI100 l'ont toujours après deux ans de traitement[7].
-D'autres études d'efficacité sont en cours dans le traitement de la spondylarthrite ankylosante, du rhumatisme psoriasique[8].
-Dans le rhumatisme psoriasique, l'étude de phase III BE OPTIMAL a atteint ses objectifs primaires et secondaires. Après 16 semaines, le nombre de patients connaissant une amélioration de 50% de leurs symptômes (score ACR50) est statistiquement significativement plus élevé dans le groupe sous traitement Bimzelx que dans le groupe placebo[9]. La fonction physique est également significativement améliorée [10]. Le médicament est également efficace dans les formes résistantes aux inhibiteurs du TNF alpha[11].
-Dans la spondylarthrite ankylosante, l'étude de phase III BE MOBILE 2 a atteint son objectif primaire ainsi que tous ses objectifs secondaires en matière d'efficacité et de tolérance[12].
-Dans la l'hidrosadénite inflammatoire chronique, les études de phase III BE HEARD et BE HEARD 2 ont atteint leurs objectifs primaire et secondaire [13], montrant contre placebo des réductions statistiquement significatives du nombre total d'abcès et de nodules inflammatoires.
+- L'étude BE READY a montré que 91% des patients avaient atteint le score PASI90 après 16 semaines de traitement au Bimékizumab contre 1% dans le groupe placébo.
+- L'étude de phase III BE VIVID a évalué Bimékizumab contre ustékinumab (commercialisé sous le nom de Stellara). Après 16 semaines, 85% des patients traités avec Bimékizumab ont atteint PASI90 contre 50% dans les groupes ustékinumab.
+- Enfin, Bimékizumab s'est révélé plus efficace que le Cosentyx dans l'étude de phase III BE RADIANT : après 16 semaines de traitement, 61,7% des patients traités par Bimékizumab ont atteint PASI100 contre 48,9% pour ceux sous Secukinumab. Le 28 mars 2022, sont publiées des données de long terme montrant que 80% des patients ayant atteint un score PASI100 à la semaine 16 le maintiennent après deux ans de traitement et que 100% de ceux ayant un PASI100 en semaine 48 le conservent en semaine 96 .
+Les patients ayant suivi jusqu'au bout l'une des trois études mentionnées étaient éligibles à participer à l'étude de phase III BE BRIGHT, qui montre dans ses résultats intermédiaires que 90% des patients ayant obtenu une peau claire ou presque claire après six semaines de traitement la conservent après deux ans en gardant le même dosage. 80% patients ayant atteint un PASI100 l'ont toujours après deux ans de traitement.
+D'autres études d'efficacité sont en cours dans le traitement de la spondylarthrite ankylosante, du rhumatisme psoriasique.
+Dans le rhumatisme psoriasique, l'étude de phase III BE OPTIMAL a atteint ses objectifs primaires et secondaires. Après 16 semaines, le nombre de patients connaissant une amélioration de 50% de leurs symptômes (score ACR50) est statistiquement significativement plus élevé dans le groupe sous traitement Bimzelx que dans le groupe placebo. La fonction physique est également significativement améliorée . Le médicament est également efficace dans les formes résistantes aux inhibiteurs du TNF alpha.
+Dans la spondylarthrite ankylosante, l'étude de phase III BE MOBILE 2 a atteint son objectif primaire ainsi que tous ses objectifs secondaires en matière d'efficacité et de tolérance.
+Dans la l'hidrosadénite inflammatoire chronique, les études de phase III BE HEARD et BE HEARD 2 ont atteint leurs objectifs primaire et secondaire , montrant contre placebo des réductions statistiquement significatives du nombre total d'abcès et de nodules inflammatoires.
 </t>
         </is>
       </c>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bim%C3%A9kizumab</t>
+          <t>Bimékizumab</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,9 +598,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains effets secondaires doivent être monitorés[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains effets secondaires doivent être monitorés.
 </t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bim%C3%A9kizumab</t>
+          <t>Bimékizumab</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,10 +631,12 @@
           <t>Autorisations de mises sur le marché</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les dossiers de demandes d'autorisation de mise sur le marché ont été acceptés respectivement par la FDA et l'EMA[14]. Les approbations éventuelles sont donc actuellement en cours d'évaluation.Le 25 juin 2021, le CHMP rend un avis favorable pour le bimékizumab dans le psoriasis modéré à sévère[15]. Dans la foulée, le Bimzelx (nom commercial du Bimékizumab) est approuvé dans cette indication en Europe par l'EMA le 24 août 2021[16].
-Le 18 octobre 2023, il est approuvé par la FDA aux États-Unis dans le taitement du psoriasis en plaques modéré à sévère chez les adultes [17].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les dossiers de demandes d'autorisation de mise sur le marché ont été acceptés respectivement par la FDA et l'EMA. Les approbations éventuelles sont donc actuellement en cours d'évaluation.Le 25 juin 2021, le CHMP rend un avis favorable pour le bimékizumab dans le psoriasis modéré à sévère. Dans la foulée, le Bimzelx (nom commercial du Bimékizumab) est approuvé dans cette indication en Europe par l'EMA le 24 août 2021.
+Le 18 octobre 2023, il est approuvé par la FDA aux États-Unis dans le taitement du psoriasis en plaques modéré à sévère chez les adultes .
 </t>
         </is>
       </c>
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bim%C3%A9kizumab</t>
+          <t>Bimékizumab</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,10 +665,12 @@
           <t>Approbations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est approuvé en Union Européenne dans le traitement du psoriasis le 24 août 2021 [18].
-Le 7 juin 2023, le Bimzelx est approuvé par l'[EMA] dans le traitement du rhumatisme psoriasique ainsi que dans celui de la spondyloarthrite axiale active chez les adultes[19].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est approuvé en Union Européenne dans le traitement du psoriasis le 24 août 2021 .
+Le 7 juin 2023, le Bimzelx est approuvé par l'[EMA] dans le traitement du rhumatisme psoriasique ainsi que dans celui de la spondyloarthrite axiale active chez les adultes.
 </t>
         </is>
       </c>
